--- a/loaded_influencer_data/skin_carebyshade/skin_carebyshade_video.xlsx
+++ b/loaded_influencer_data/skin_carebyshade/skin_carebyshade_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7473230663089622318</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33700000</v>
+        <v>35200000</v>
       </c>
       <c r="C2" t="n">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="D2" t="n">
-        <v>9460</v>
+        <v>9748</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3.885637982195846</v>
+        <v>4.00496590909091</v>
       </c>
       <c r="I2" t="n">
-        <v>3.857566765578635</v>
+        <v>3.977272727272727</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02807121661721068</v>
+        <v>0.02769318181818182</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3560830860534124</v>
+        <v>0.3551136363636364</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -560,19 +560,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7376665893230693678</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6600000</v>
+        <v>6700000</v>
       </c>
       <c r="C3" t="n">
-        <v>209800</v>
+        <v>209900</v>
       </c>
       <c r="D3" t="n">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -582,23 +582,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Its only that or nothing 🙌</t>
+          <t>In 2 weeks?????🥹
+Product name : @SKIN1004 US Tone brightening capsule ampoule
+@스킨1004 Korea</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.221969696969697</v>
+        <v>3.17534328358209</v>
       </c>
       <c r="I3" t="n">
-        <v>3.178787878787879</v>
+        <v>3.132835820895522</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04318181818181818</v>
+        <v>0.04250746268656716</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,45 +614,46 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7418882640251505963</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33100000</v>
+        <v>33200000</v>
       </c>
       <c r="C4" t="n">
-        <v>568300</v>
+        <v>569000</v>
       </c>
       <c r="D4" t="n">
-        <v>9425</v>
+        <v>9432</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Its only that or nothing 🙌</t>
+          <t>Love combining these two products for clearing dark spots and hyperpigmentation.
+@Anua Store US @anua_kr Dark spot serum and Faded by Topicals.</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.745392749244713</v>
+        <v>1.742265060240964</v>
       </c>
       <c r="I4" t="n">
-        <v>1.716918429003021</v>
+        <v>1.713855421686747</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02847432024169184</v>
+        <v>0.02840963855421687</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1441087613293051</v>
+        <v>0.1439759036144578</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,19 +667,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7487017647549304106</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7489555020803837226</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568</v>
+        <v>3457</v>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -684,2323 +687,2365 @@
       <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>2.198437951981487</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.053803876193231</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1446340757882557</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.08678044547295344</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7487559761584606506</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16400</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0.4634146341463414</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4329268292682927</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.03048780487804878</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01829268292682927</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7487017647549304106</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>290</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>To make the blueberry syrup:
+-blueberries, sugar and water
+-boil water under low heat and add sugar into the warm water.</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1.475247524752475</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.435643564356436</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.06435643564356436</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7485708881784507694</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72400</v>
+      </c>
+      <c r="C8" t="n">
+        <v>371</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>If I ever leave here 😭
 #tiblaze #trencheslove</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>6.887755102040815</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.696428571428571</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1913265306122449</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1913265306122449</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7485708881784507694</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>52100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>774</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>108</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>0.5497237569060773</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5124309392265193</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03729281767955801</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01657458563535912</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7485055938563558702</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21900</v>
+      </c>
+      <c r="C9" t="n">
+        <v>995</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>159</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Did you know that we need to brush our pores and not just our teeth?
 @APRILSKIN USA Carrotene IPMP cleansing balm and silicone brush</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1.523992322456814</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.485604606525912</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.03838771593090212</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2072936660268714</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7485055938563558702</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C7" t="n">
-        <v>260</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>4.698630136986302</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.54337899543379</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1552511415525114</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.726027397260274</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7483262592861981995</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>23200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>363</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>100k of you💃💃— I am so grateful! Thank you for being here, for the love, and for growing with me. This is only the beginning! Cheers to us! 🥂</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>2.603448275862069</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.241379310344827</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3620689655172414</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.05172413793103448</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1.853448275862069</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.564655172413793</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2887931034482759</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7483262592861981995</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C8" t="n">
-        <v>187</v>
-      </c>
-      <c r="D8" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7482444582878203178</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>306</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>If you would like to win some skincare goodies , you definitely should Join my skincare quiz on my instagram story. The next one is going to be happening on 29th of March.</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.330677290836654</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.219123505976096</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1115537848605578</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05179282868525896</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skin_carebyshade/video/7482166413902400814</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18700</v>
+      </c>
+      <c r="C12" t="n">
+        <v>141</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>32</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>I eat eggs almost everyday, there are so many ways to make it and this is one of my favorites 😍.
-No seasoning because the pepper mix is well seasoned so feel free to do you 😘.</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1.281045751633987</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.222222222222222</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0588235294117647</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2091503267973857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7482444582878203178</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25100</v>
-      </c>
-      <c r="C9" t="n">
-        <v>306</v>
-      </c>
-      <c r="D9" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>If you would like to win some skincare goodies , you definitely should Join my skincare quiz on my instagram story. The next one is going to be happening on 29th of March.</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1.330677290836654</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.219123505976096</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1115537848605578</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.05179282868525896</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7482166413902400814</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>18700</v>
-      </c>
-      <c r="C10" t="n">
-        <v>141</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Fruits with honey and lemon hits different 😭😭😊.
 #healthy #healthyrecipes #fruits #fruitssalad</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>0.7967914438502673</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>0.7540106951871658</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.0427807486631016</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>0.04812834224598931</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7481964111102758186</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>25700</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>314</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>50</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>I love a sweet, healthy drink.🥹
 I drink this post gym and I love how very filling it is .
 #breakfastideas #smoothie</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>1.284046692607004</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>1.221789883268483</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.0622568093385214</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>0.1945525291828794</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7481346365772287278</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>1100000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>73800</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>826</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2286</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Replying to @LovetAsante from braids back to braids 😂😍.
 #hairtok #hairvlog #onemillionbraids #hair #breids</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>6.784181818181819</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>6.709090909090909</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.0750909090909091</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>0.2078181818181818</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7480968364270161194</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>259300</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>3979</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>56</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>125</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>@mixsoon Centella sun cream
 It’s super lightweight and leaves a dewy finish.
 @mixsoon_official @mixsoon_global</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>1.556112610875434</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>1.534516004627844</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.02159660624758966</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>0.04820671037408407</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7480230117449436462</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>27600</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>263</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>10</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Happy New week , let’s go grocery shopping 🛒.
 #healthyliving #groceryshopping #march #healthyrecipes</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>0.9891304347826088</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>0.9528985507246377</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.03623188405797102</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>0.05072463768115942</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7479853478987222314</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>30900</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>230</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>27</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Happy New week , let’s go grocery shopping 🛒.
 #healthyliving #groceryshopping #march #healthyrecipes</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>0.7831715210355987</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>0.7443365695792881</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.03883495145631068</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>0.08737864077669903</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7479371814498471211</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>23100</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>191</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>19</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>27</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>I love a quick quick breakfast😍
 #breakfast #breakfastideas #healthyrecipes #healthyliving</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>0.8268398268398268</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.08225108225108226</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>0.1168831168831169</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7478689724056718638</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>28900</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>347</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>50</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>20</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>How did I do ?</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>1.373702422145329</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>1.200692041522491</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.1730103806228374</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>0.06920415224913494</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7478360336744205611</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>55400</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>1941</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>80</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>253</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Been using it for 2 years and I can tell you for a fact that, this will save you money. It’s big and suitable for both the face and body. You will love this if your skin is dry. Oily skin might find it to be too greasy.</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>3.648014440433213</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>3.503610108303249</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.1444043321299639</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>0.4566787003610108</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7477946042286099755</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>22600</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>252</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Another month, another Nail Day 💅.
 This guy is actually the best Nail tech I know 😭. He’s been doing my nails for 4 years now.</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>1.190265486725664</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>1.115044247787611</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.0752212389380531</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>0.04424778761061947</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7477167858963729706</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>36900</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>338</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>23</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>11</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>How did I do ???
 #makeup #makeuptutorial #beginnermakeup #beginnermakeuptutorial</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>0.978319783197832</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I22" t="n">
         <v>0.915989159891599</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.06233062330623306</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>0.02981029810298103</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7476216850540547371</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>2200000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>338</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>23</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>How did I do ???
 #makeup #makeuptutorial #beginnermakeup #beginnermakeuptutorial</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>0.01640909090909091</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I23" t="n">
         <v>0.01536363636363636</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.001045454545454546</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L23" t="n">
         <v>0.0005</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7475287835830930734</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B24" t="n">
         <v>2100000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>53200</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D24" t="n">
         <v>1708</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>2389</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>After rubbing and rubbing it in, it’s actually not bad😂.
 #skin1004 #sunserum #beautyhacks</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>2.614666666666666</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I24" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.08133333333333333</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L24" t="n">
         <v>0.1137619047619048</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/photo/7475074671369522474</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>51100</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>744</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>43</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>23</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Day 2 @Lakowe Lakes with @Beauty Hut Africa
 #bhtakeslakowe #dinnerootd</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>1.540117416829746</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>1.455968688845401</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.08414872798434442</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>0.04500978473581213</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7475019069809478958</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>161100</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>22000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>60</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>591</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Day 2 @Lakowe Lakes with @Beauty Hut Africa
 #bhtakeslakowe #lakowelakes</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>13.6933581626319</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>13.65611421477343</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.03724394785847299</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>0.366852886405959</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7474699430701190446</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B27" t="n">
         <v>50500</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C27" t="n">
         <v>580</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D27" t="n">
         <v>39</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>111</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>You are definitely going to smell good if you follow these steps.
 #bodycare #howtosmellgood #bodywash</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>1.225742574257426</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>1.148514851485148</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.07722772277227723</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>0.2198019801980198</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7474202380305845550</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>74400</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C28" t="n">
         <v>665</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D28" t="n">
         <v>28</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>18</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>You are definitely going to smell good if you follow these steps.
 #bodycare #howtosmellgood #bodywash</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>0.9314516129032258</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>0.8938172043010753</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.03763440860215054</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>0.02419354838709677</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7474038176722537770</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B29" t="n">
         <v>94000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>491</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>44</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>34</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Be serious na 😭😭😭
 #skincaretips #skincaretiktok #organicskincare #nigeriantiktok #oshaprapra</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>0.5691489361702128</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>0.5223404255319148</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.04680851063829787</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>0.03617021276595744</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7473795779103182122</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B30" t="n">
         <v>116700</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C30" t="n">
         <v>702</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>55</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>37</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Can’t stop and won’t stop doing this lip combo.
 #lipcombo #lipcombotutorial #lipgloss #everydaylipcombo #skintok</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>0.6486718080548415</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I30" t="n">
         <v>0.6015424164524422</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.04712939160239932</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L30" t="n">
         <v>0.03170522707797772</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7473532977423797550</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B31" t="n">
         <v>145300</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
         <v>584</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D31" t="n">
         <v>44</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>33</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>With my skincare bestie @Reeds A.
 Day 2 @Lakowe Lakes with @Beauty Hut Africa
 #lakowelakes</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>0.4322092222986924</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>0.4019270474879559</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.03028217481073641</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L31" t="n">
         <v>0.02271163110805231</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7472456854640119082</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>145700</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C32" t="n">
         <v>811</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D32" t="n">
         <v>49</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>56</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>@Abib Cosmetics lip mask 😍😍
 #glazedjelly #abiblipmask #lipbalm #sleepingmask #lipcare #glowup #drylips</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>0.5902539464653398</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>0.5566231983527797</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.03363074811256005</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L32" t="n">
         <v>0.03843514070006863</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7472113905532439854</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B33" t="n">
         <v>123300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C33" t="n">
         <v>1425</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D33" t="n">
         <v>51</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>49</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>@Beauty Hut Africa called and I answered 💕
 #bhtakeslakowe #lakowelakes #beautyhut</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>1.197080291970803</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>1.155717761557178</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.04136253041362531</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>0.03974047039740471</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7471705863867108654</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>133800</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>3775</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>60</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>65</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>PSA: blue lip liner deserves a moment! Not just black or brown.
 #lipcombo #lipcombotutorial #bluelipliner</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>2.866218236173393</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>2.821375186846039</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.04484304932735426</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>0.04857997010463378</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7471315729778871598</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>107900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>518</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>30</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>87</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Say goodbye to visible pores with this game-changing K-beauty serum! 🌸✨ @FRANKLY_GLOBAL Watch as my skin transforms with its lightweight formula and pore-tightening magic. A little goes a long way to smooth, refine, and glow!</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>0.5078776645041705</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>0.4800741427247452</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.02780352177942539</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>0.08063021316033364</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7469926387483217198</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>67000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>594</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>41</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>19</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Just touched down at Lakowe Lakes…. Let the brand trip begin! ✨🏝️
 @Beauty Hut Africa
 #bhtakeslakowe</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>0.9477611940298508</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>0.8865671641791044</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.06119402985074628</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>0.02835820895522388</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7469342762698116398</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>155300</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>10400</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>174</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>469</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Best decision for my nails fr 🥹</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>6.808757244043787</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>6.69671603348358</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1120412105602061</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>0.3019961365099807</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7467157677920259374</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>64200</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>1063</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>63</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>43</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>What really goes down at brand events 👀🎁🍽️
 @UNCOVER said come over babyyyy.
 #brandevent</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>1.753894080996885</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>1.655763239875389</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.09813084112149534</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>0.06697819314641745</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7466396744008486187</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>73300</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>1423</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>86</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>94</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Korean skincare always hits different 😍
 #glassskingoals #kbeautyroutine #skincareaddict #selfcarevibes</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>2.058663028649386</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>1.941336971350614</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1173260572987722</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L39" t="n">
         <v>0.1282401091405184</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7465829124674768171</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>37000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>231</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>14</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>30</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Replying to @Cosmetics Vendor in Lagos
 This was hard to film😭.
 #salad #healthyrecipes</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>0.6621621621621622</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>0.6243243243243243</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.03783783783783784</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>0.08108108108108107</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7464965174890417454</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B41" t="n">
         <v>1800000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>26200</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>197</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>791</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Why are you being too careful?😂😂
 #skincarehumor #skinjokes #lashextensions #lashes #cleanser</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H41" t="n">
         <v>1.4665</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I41" t="n">
         <v>1.455555555555555</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.01094444444444444</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L41" t="n">
         <v>0.04394444444444445</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7463935718147280174</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B42" t="n">
         <v>3500000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>252900</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D42" t="n">
         <v>2283</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>9946</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Was it worth it ?
 #braids #nigerianbraids #hairvlog #hairday #onemillionbraids #microtwists #microbraids #blondebraids</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H42" t="n">
         <v>7.290942857142857</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>7.225714285714285</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.06522857142857143</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L42" t="n">
         <v>0.2841714285714286</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7460179964504067374</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B43" t="n">
         <v>53900</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C43" t="n">
         <v>606</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>17</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>72</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>@mixsoon_official bean cream is very rich and moisturizing.
 #mixsoon #mixsoonbeancream</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>1.155844155844156</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>1.12430426716141</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.03153988868274583</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>0.1335807050092764</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7460096827983940907</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>48300</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>993</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>52</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>78</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>@mixsoon_official bean cream is very rich and moisturizing.
 #mixsoon #mixsoonbeancream</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>2.163561076604555</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>2.055900621118012</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.1076604554865424</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>0.1614906832298137</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7459060032496225578</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>44000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>1040</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>68</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>49</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Do you want to see the Vlog I made of this #onemillionbraids ???
 #newhair #braidsgirlie #braids #blackhair #blondebraids</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>2.518181818181818</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>2.363636363636364</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1545454545454545</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>0.1113636363636364</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7457851683138178350</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>44100</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>695</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>56</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>87</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>My Updated Morning skincare routine featuring some of my favorite products from @mixsoon_official
 This routine is simple but works really well to protect my skin barrier and keep my skin radiant throughout the day.</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>1.702947845804989</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>1.575963718820862</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.126984126984127</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L46" t="n">
         <v>0.1972789115646258</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/photo/7457477189450206510</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>35100</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>742</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>49</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>76</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Hi, glow-up bestie! 🌟 My name is Shade, but you can call me Shadebum or SkinPop—whichever you prefer because we are besties now😘</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>2.253561253561254</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>2.113960113960114</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1396011396011396</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>0.2165242165242166</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7451609594931154222</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>179800</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>1234</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>46</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>173</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>@medicube @Medicube Global gets it everytime.
 #medicube #medicubepartner #glowyskin #koreanskincare</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>0.7119021134593994</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>0.6863181312569522</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.02558398220244716</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>0.09621802002224694</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7449788040098286894</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>1700000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>56500</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>1225</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>8565</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Get rid of dark spots with just 2 products from @APRILSKIN USA
 -the calendula peel off mask gently exfoliates dead skin cells to reveal a smoother skin, tightens the pores, and helps skincare and makeup absorption.</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>3.395588235294118</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>3.323529411764706</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.07205882352941176</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>0.5038235294117647</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7449723278664453422</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
         <v>27100</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C50" t="n">
         <v>335</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>17</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>14</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Skincare events &gt;&gt;&gt;</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>1.298892988929889</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>1.236162361623616</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.06273062730627306</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>0.05166051660516605</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skin_carebyshade/video/7449104640605424938</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>25200</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>386</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>21</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>13</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>😍😍🎀</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>1.615079365079365</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>1.531746031746032</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.08333333333333334</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>0.05158730158730159</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skin_carebyshade/video/7449036404274842923</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>22300</v>
-      </c>
-      <c r="C50" t="n">
-        <v>250</v>
-      </c>
-      <c r="D50" t="n">
-        <v>18</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>29</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Morning skincare routine featuring @Abib Global holiday moonbox
-#abib #abibholidaymoonglowbox</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1.201793721973094</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.121076233183856</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.08071748878923768</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1300448430493273</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
